--- a/Output/00_PrettyEditedTables.xlsx
+++ b/Output/00_PrettyEditedTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C016BF9B-0F7F-4D04-88C7-B0B951BFB19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5079B08F-ACC9-409D-ACA2-36935569E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19303" yWindow="3369" windowWidth="19406" windowHeight="11485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPA" sheetId="2" r:id="rId1"/>
@@ -770,7 +770,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -817,6 +817,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -898,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -945,18 +952,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,6 +966,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,63 +1280,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E876E58-69A6-40D5-A138-00AF2B8A39AF}">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.40625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="0.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.40625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="3" customWidth="1"/>
     <col min="7" max="7" width="0.86328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.40625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="11.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>155</v>
       </c>
@@ -1351,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1376,28 +1386,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +1432,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>102</v>
       </c>
@@ -1447,7 +1457,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1472,7 +1482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>103</v>
       </c>
@@ -1497,7 +1507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>104</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
@@ -1622,7 +1632,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1639,28 +1649,28 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>105</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -1735,7 +1745,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -1760,7 +1770,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
@@ -1785,7 +1795,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>107</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
@@ -1827,7 +1837,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1837,45 +1847,45 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>60</v>
       </c>
@@ -1900,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +1935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>102</v>
       </c>
@@ -1975,7 +1985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>156</v>
       </c>
@@ -2116,6 +2126,7 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2123,36 +2134,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660B36E2-614D-4BFC-9DFD-65D5E3ED2816}">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.40625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="0.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.40625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="11.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>155</v>
       </c>
@@ -2163,212 +2174,212 @@
         <v>4</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>160</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>190</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>196</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -2378,133 +2389,133 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>203</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>207</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>211</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="19" t="s">
         <v>213</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>217</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="19" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
@@ -2514,28 +2525,28 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>60</v>
       </c>
@@ -2553,147 +2564,147 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>221</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="19" t="s">
         <v>226</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>231</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="19" t="s">
         <v>234</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="19" t="s">
         <v>237</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
         <v>156</v>
       </c>

--- a/Output/00_PrettyEditedTables.xlsx
+++ b/Output/00_PrettyEditedTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5079B08F-ACC9-409D-ACA2-36935569E4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC4FA9F-659E-40A8-84D7-562D1D70574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVPA" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="242">
   <si>
     <t/>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Daily pressure experienced</t>
-  </si>
-  <si>
-    <t>0.91*</t>
   </si>
   <si>
     <t>0.95</t>
@@ -764,6 +761,18 @@
   </si>
   <si>
     <t>[0.94, 0.98]</t>
+  </si>
+  <si>
+    <t>Individuals' Self-Reported MVPA</t>
+  </si>
+  <si>
+    <t>Individuals' Device-Based MVPA</t>
+  </si>
+  <si>
+    <t>Individuals' Reactance</t>
+  </si>
+  <si>
+    <t>Individuals' Mood</t>
   </si>
 </sst>
 </file>
@@ -820,9 +829,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
@@ -1280,28 +1287,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E876E58-69A6-40D5-A138-00AF2B8A39AF}">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.46484375" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.3984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="0.86328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.46484375" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3984375" style="3" customWidth="1"/>
     <col min="7" max="7" width="0.86328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8.73046875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1309,7 +1316,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="2"/>
       <c r="H2" s="22" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>2</v>
@@ -1320,14 +1327,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="4"/>
@@ -1338,7 +1345,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1369,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="4" t="s">
@@ -1412,49 +1419,49 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -1462,179 +1469,179 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1643,186 +1650,186 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1831,10 +1838,10 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -1850,7 +1857,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -1858,7 +1865,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="2"/>
       <c r="H26" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>2</v>
@@ -1869,14 +1876,14 @@
         <v>0</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="10"/>
@@ -1887,24 +1894,24 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>4</v>
@@ -1915,24 +1922,24 @@
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -1940,49 +1947,49 @@
         <v>13</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -1990,124 +1997,124 @@
         <v>16</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2134,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660B36E2-614D-4BFC-9DFD-65D5E3ED2816}">
   <dimension ref="A2:K34"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2152,12 +2159,12 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="2"/>
       <c r="E2" s="22" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>2</v>
@@ -2165,7 +2172,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2175,7 +2182,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
@@ -2186,17 +2193,17 @@
         <v>6</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2222,35 +2229,35 @@
         <v>13</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>173</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -2258,130 +2265,130 @@
         <v>16</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>180</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2391,133 +2398,133 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>203</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>206</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2535,12 +2542,12 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="2"/>
       <c r="E25" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>2</v>
@@ -2548,17 +2555,17 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>4</v>
@@ -2569,17 +2576,17 @@
         <v>6</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>221</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -2589,37 +2596,37 @@
         <v>13</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -2629,93 +2636,93 @@
         <v>16</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="9"/>
       <c r="E34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Output/00_PrettyEditedTables.xlsx
+++ b/Output/00_PrettyEditedTables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6787ACF4-E2F3-4EFD-9BB5-256AED32201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC635610-C032-48E9-B64B-4FF4C4F2E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,7 +801,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -853,6 +853,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -944,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1027,21 +1033,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,6 +1043,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,7 +1361,7 @@
   <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1370,18 +1380,18 @@
   <sheetData>
     <row r="2" spans="1:9" s="21" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1389,20 +1399,20 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1435,24 +1445,24 @@
       <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="39" t="s">
         <v>210</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="39" t="s">
         <v>194</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="39" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1460,37 +1470,37 @@
       <c r="A6" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="39" t="s">
         <v>211</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="39" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="39" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1498,24 +1508,24 @@
       <c r="A8" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>212</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="39" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="39" t="s">
         <v>236</v>
       </c>
     </row>
@@ -1523,24 +1533,24 @@
       <c r="A9" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="39" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="39" t="s">
         <v>214</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="39" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1548,24 +1558,24 @@
       <c r="A10" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="39" t="s">
         <v>215</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="39" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="39" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1573,24 +1583,24 @@
       <c r="A11" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>216</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="39" t="s">
         <v>217</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1598,24 +1608,24 @@
       <c r="A12" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>218</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="39" t="s">
         <v>87</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="39" t="s">
         <v>237</v>
       </c>
     </row>
@@ -1623,24 +1633,24 @@
       <c r="A13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>219</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="39" t="s">
         <v>220</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="39" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1648,24 +1658,24 @@
       <c r="A14" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="39" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="39" t="s">
         <v>221</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="39" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1673,24 +1683,24 @@
       <c r="A15" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>222</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="39" t="s">
         <v>223</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="39" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1698,16 +1708,16 @@
       <c r="A16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="39" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1715,37 +1725,37 @@
       <c r="A17" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="39" t="s">
         <v>225</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="39" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1753,24 +1763,24 @@
       <c r="A19" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="39" t="s">
         <v>226</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="39" t="s">
         <v>227</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="39" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1778,24 +1788,24 @@
       <c r="A20" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="39" t="s">
         <v>228</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="39" t="s">
         <v>229</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="39" t="s">
         <v>240</v>
       </c>
     </row>
@@ -1803,24 +1813,24 @@
       <c r="A21" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="39" t="s">
         <v>230</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="39" t="s">
         <v>231</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="39" t="s">
         <v>241</v>
       </c>
     </row>
@@ -1828,24 +1838,24 @@
       <c r="A22" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>232</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="39" t="s">
         <v>233</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="39" t="s">
         <v>242</v>
       </c>
     </row>
@@ -1853,24 +1863,24 @@
       <c r="A23" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="39" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="39" t="s">
         <v>235</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="39" t="s">
         <v>243</v>
       </c>
     </row>
@@ -1884,10 +1894,10 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="39" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1903,18 +1913,18 @@
     </row>
     <row r="26" spans="1:9" s="21" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1922,20 +1932,20 @@
       <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32" t="s">
+      <c r="H27" s="36"/>
+      <c r="I27" s="36" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1968,24 +1978,24 @@
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="31" t="s">
         <v>185</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="31" t="s">
         <v>81</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1993,24 +2003,24 @@
       <c r="A30" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="31" t="s">
         <v>187</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="31" t="s">
         <v>201</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2018,24 +2028,24 @@
       <c r="A31" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="31" t="s">
         <v>188</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="31" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="31" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2043,24 +2053,24 @@
       <c r="A32" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="31" t="s">
         <v>189</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="31" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2068,24 +2078,24 @@
       <c r="A33" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="31" t="s">
         <v>190</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2093,24 +2103,24 @@
       <c r="A34" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="31" t="s">
         <v>191</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="31" t="s">
         <v>202</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="31" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2118,24 +2128,24 @@
       <c r="A35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="31" t="s">
         <v>192</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="31" t="s">
         <v>95</v>
       </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="31" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2199,15 +2209,15 @@
   <sheetData>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
@@ -2231,17 +2241,17 @@
       <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="31" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2249,27 +2259,27 @@
       <c r="A5" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="31" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2277,17 +2287,17 @@
       <c r="A7" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="31" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2295,17 +2305,17 @@
       <c r="A8" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="31" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="31" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2313,17 +2323,17 @@
       <c r="A9" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="31" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2331,17 +2341,17 @@
       <c r="A10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="31" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2349,17 +2359,17 @@
       <c r="A11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="31" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2367,17 +2377,17 @@
       <c r="A12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="31" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2385,17 +2395,17 @@
       <c r="A13" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="31" t="s">
         <v>128</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="31" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2403,17 +2413,17 @@
       <c r="A14" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2421,37 +2431,37 @@
       <c r="A15" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="31" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2459,17 +2469,17 @@
       <c r="A18" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="31" t="s">
         <v>133</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="31" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2477,17 +2487,17 @@
       <c r="A19" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="31" t="s">
         <v>135</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="31" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2495,17 +2505,17 @@
       <c r="A20" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="31" t="s">
         <v>137</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="31" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2513,17 +2523,17 @@
       <c r="A21" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="31" t="s">
         <v>139</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="31" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2531,17 +2541,17 @@
       <c r="A22" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="31" t="s">
         <v>141</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="31" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2564,15 +2574,15 @@
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
@@ -2596,17 +2606,17 @@
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="31" t="s">
         <v>142</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="31" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="17"/>
@@ -2616,17 +2626,17 @@
       <c r="A28" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="31" t="s">
         <v>67</v>
       </c>
       <c r="J28" s="17"/>
@@ -2636,17 +2646,17 @@
       <c r="A29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="31" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="31" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="17"/>
@@ -2656,17 +2666,17 @@
       <c r="A30" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="31" t="s">
         <v>146</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="31" t="s">
         <v>173</v>
       </c>
       <c r="J30" s="17"/>
@@ -2676,17 +2686,17 @@
       <c r="A31" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="31" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="31" t="s">
         <v>69</v>
       </c>
       <c r="J31" s="17"/>
@@ -2696,17 +2706,17 @@
       <c r="A32" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="31" t="s">
         <v>174</v>
       </c>
       <c r="J32" s="17"/>
@@ -2716,17 +2726,17 @@
       <c r="A33" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="31" t="s">
         <v>151</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="31" t="s">
         <v>43</v>
       </c>
       <c r="J33" s="17"/>
@@ -2739,10 +2749,10 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="33" t="s">
         <v>70</v>
       </c>
     </row>
